--- a/sy-portfolio/creating-risk-optimal-portfolio.xlsx
+++ b/sy-portfolio/creating-risk-optimal-portfolio.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xebra/Desktop/Projects/quantitative-finance/portfolio-analysis/sy-portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152FB8F0-E2C9-704B-93F3-E551BE44C93B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16885D20-54E0-5844-BF16-2A9AD7F54F7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{D66C35C1-C444-CC43-908E-2C3608E900D9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="6" xr2:uid="{D66C35C1-C444-CC43-908E-2C3608E900D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Choice Cards" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Coefficient" sheetId="2" r:id="rId2"/>
+    <sheet name="To Earners" sheetId="3" r:id="rId3"/>
+    <sheet name="Correlations" sheetId="4" r:id="rId4"/>
+    <sheet name="Assets" sheetId="5" r:id="rId5"/>
+    <sheet name="Risky portfolio" sheetId="6" r:id="rId6"/>
+    <sheet name="with risk free" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Risky portfolio'!$D$27</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Risky portfolio'!$D$28:$D$48</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Risky portfolio'!$E$27</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Risky portfolio'!$E$28:$E$48</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="62">
   <si>
     <t>Risk Premium</t>
   </si>
@@ -84,14 +95,150 @@
     <t>Portfolio F</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Risk Aversion Co-efficient</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Associated Risk</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Annual Return</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>KAY&amp;QUE</t>
+  </si>
+  <si>
+    <t>STANCERAM</t>
+  </si>
+  <si>
+    <t>RENWICKJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZIZPIPES </t>
+  </si>
+  <si>
+    <t>BDAUTOCA</t>
+  </si>
+  <si>
+    <t>MONNOCERA</t>
+  </si>
+  <si>
+    <t>DAFODILCOM</t>
+  </si>
+  <si>
+    <t>RAHIMAFOOD</t>
+  </si>
+  <si>
+    <t>DULAMIACOT</t>
+  </si>
+  <si>
+    <t>SONALIANSH</t>
+  </si>
+  <si>
+    <t>AZIZPIPES</t>
+  </si>
+  <si>
+    <t>MONNOSTAF</t>
+  </si>
+  <si>
+    <t>UPGDCL</t>
+  </si>
+  <si>
+    <t>NORTHERN</t>
+  </si>
+  <si>
+    <t>RECKITTBEN</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Monno Group</t>
+  </si>
+  <si>
+    <t>United Power Bangladesh ltd. (UPGDCL)</t>
+  </si>
+  <si>
+    <t>Monno Group (MONNOSTAF)</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Portfolio Return</t>
+  </si>
+  <si>
+    <t>Portfolio Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>Portfolio Std</t>
+  </si>
+  <si>
+    <t>Risk Premium to VAR</t>
+  </si>
+  <si>
+    <t>Portfolio Risk</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Risk Aversion Coefficient</t>
+  </si>
+  <si>
+    <t>Risk Free Rate</t>
+  </si>
+  <si>
+    <t>Weight of the Risky Portfolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight of the Risk Free Asset </t>
+  </si>
+  <si>
+    <t>Risk Free Weight</t>
+  </si>
+  <si>
+    <t>Risky Portfolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk Free </t>
+  </si>
+  <si>
+    <t>United Power Bangladesh ltd</t>
+  </si>
+  <si>
+    <t>T-Bonds</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Allocation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,22 +258,105 @@
       <name val="TimesNewRomanPS"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -134,24 +364,244 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -164,6 +614,979 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Risky portfolio'!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Portfolio Return</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Risky portfolio'!$D$28:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.60716848364093201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57710026519855695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54767420440674597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.518999539275116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49120787745913103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46445775427150399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43893963325593499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41488090736702199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39254999995849499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37225798467198401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35435530382877301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33922046675579498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32723773971740899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31876279745227498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31407972443114501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.313358572681185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31662641450412399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32376248572925698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.334519323035815</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.34856187014358597</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.365511623162042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Risky portfolio'!$E$28:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.432571051068526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42535680461708802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41814255816565099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41092831171421401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40371406526277698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39649981881134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38928557235990302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38207132590846499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37485707945702801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36764283300559097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.360428586554154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35321434010271702</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34600009365127998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33878584719984201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33157160074840503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32435735429696799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31714310784553101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30992886139409398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.302714614942657</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29550036849121902</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28828612203978199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-629E-504C-8CD1-3C6FFF05D902}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="336284848"/>
+        <c:axId val="336286480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="336284848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336286480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="336286480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336284848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -755,14 +2178,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>662516</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>814916</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -816,14 +2239,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -877,14 +2300,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>662516</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>814916</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -938,14 +2361,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -999,7 +2422,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1055,7 +2478,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1111,7 +2534,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1167,7 +2590,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1223,7 +2646,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1279,7 +2702,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1333,6 +2756,673 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1653116" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="page2image64370576">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313BEFC6-6828-594F-92FB-1D17A6DF03D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2997200" y="1028700"/>
+          <a:ext cx="1653116" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1130300" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="page2image64318512">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED9A390-4B0D-0747-A350-29848E2B86D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3835400" y="1028700"/>
+          <a:ext cx="1130300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1651000" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="page2image64370576">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA3660C-5ACD-8746-945F-334D9ADF9DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7124700" y="1028700"/>
+          <a:ext cx="1651000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1130300" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="page2image64318512">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F793341D-8C8F-EB40-A4AE-EA13CA5D21E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8216900" y="1028700"/>
+          <a:ext cx="1130300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1651000" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="page2image64370576">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3C5CEF-E6E2-4E48-9849-BD91BE718785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7124700" y="3441700"/>
+          <a:ext cx="1651000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1130300" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="page2image64318512">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53D35AC-CC3F-334B-A1EE-6E6845D953EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7962900" y="3441700"/>
+          <a:ext cx="1130300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1653116" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="page2image64370576">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95EFAFE-6622-6D40-A949-D36ED8C925CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2997200" y="6286500"/>
+          <a:ext cx="1653116" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1130300" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="page2image64318512">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E09C685-8630-AF40-BFCA-A091B81EF44E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3835400" y="6286500"/>
+          <a:ext cx="1130300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1651000" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="page2image64370576">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B62539B-955F-2843-ABBC-12E0B2D9FFAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5994400" y="1028700"/>
+          <a:ext cx="1651000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1130300" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="page2image64318512">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBAB921-F5E6-A14F-8B7E-8112691B820B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7086600" y="1028700"/>
+          <a:ext cx="1130300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1651000" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="page2image64370576">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B48518-D9DE-6D40-A45C-B6053A5A5A69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9601200" y="2844800"/>
+          <a:ext cx="1651000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60A25E9-C6AE-BF41-BFB5-853E7194CF14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1636,7 +3726,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I18" sqref="A1:I18"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1653,517 +3743,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f ca="1">RANDBETWEEN(5,15)</f>
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
         <f ca="1">RANDBETWEEN(10,25)</f>
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>18</v>
-      </c>
-      <c r="F3" s="3">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
         <f ca="1">RANDBETWEEN(15,30)</f>
-        <v>23</v>
-      </c>
-      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f ca="1">RANDBETWEEN(15,25)</f>
-        <v>24</v>
-      </c>
-      <c r="I3" s="3">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2">
         <f ca="1">RANDBETWEEN(20,35)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f t="shared" ref="B4:B8" ca="1" si="0">RANDBETWEEN(5,15)</f>
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
         <f t="shared" ref="C4:C8" ca="1" si="1">RANDBETWEEN(10,25)</f>
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E8" ca="1" si="2">RANDBETWEEN(10,20)</f>
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" ref="F4:F8" ca="1" si="3">RANDBETWEEN(15,30)</f>
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H8" ca="1" si="4">RANDBETWEEN(15,25)</f>
         <v>23</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f t="shared" ref="I4:I8" ca="1" si="5">RANDBETWEEN(20,35)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ca="1" si="5"/>
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="6" spans="1:9" ht="16" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" ca="1" si="2"/>
         <v>19</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="I5" s="3">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16" customHeight="1"/>
     <row r="10" spans="1:9" ht="16" customHeight="1"/>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="16" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f ca="1">RANDBETWEEN(20,35)</f>
+        <v>31</v>
+      </c>
+      <c r="C13" s="2">
+        <f ca="1">RANDBETWEEN(30,40)</f>
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <f ca="1">RANDBETWEEN(25,40)</f>
+        <v>35</v>
+      </c>
+      <c r="F13" s="2">
+        <f ca="1">RANDBETWEEN(35,50)</f>
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <f ca="1">RANDBETWEEN(30,50)</f>
+        <v>41</v>
+      </c>
+      <c r="I13" s="2">
+        <f ca="1">RANDBETWEEN(40,60)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" ref="B14:B18" ca="1" si="6">RANDBETWEEN(20,35)</f>
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:C18" ca="1" si="7">RANDBETWEEN(30,40)</f>
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14:E18" ca="1" si="8">RANDBETWEEN(25,40)</f>
+        <v>30</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ref="F14:F18" ca="1" si="9">RANDBETWEEN(35,50)</f>
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" ref="H14:H18" ca="1" si="10">RANDBETWEEN(30,50)</f>
+        <v>34</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" ref="I14:I18" ca="1" si="11">RANDBETWEEN(40,60)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>32</v>
       </c>
-      <c r="C13" s="3">
-        <f ca="1">RANDBETWEEN(30,40)</f>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" ca="1" si="9"/>
         <v>36</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3">
-        <f ca="1">RANDBETWEEN(25,40)</f>
-        <v>34</v>
-      </c>
-      <c r="F13" s="3">
-        <f ca="1">RANDBETWEEN(35,50)</f>
-        <v>49</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3">
-        <f ca="1">RANDBETWEEN(30,50)</f>
-        <v>46</v>
-      </c>
-      <c r="I13" s="3">
-        <f ca="1">RANDBETWEEN(40,60)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3">
-        <f t="shared" ref="B14:B18" ca="1" si="6">RANDBETWEEN(20,35)</f>
-        <v>32</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" ref="C14:C18" ca="1" si="7">RANDBETWEEN(30,40)</f>
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" ref="E14:E18" ca="1" si="8">RANDBETWEEN(25,40)</f>
-        <v>33</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" ref="F14:F18" ca="1" si="9">RANDBETWEEN(35,50)</f>
-        <v>41</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" ref="H14:H18" ca="1" si="10">RANDBETWEEN(30,50)</f>
-        <v>36</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" ref="I14:I18" ca="1" si="11">RANDBETWEEN(40,60)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>38</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>33</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" ca="1" si="10"/>
         <v>31</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I18" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" ca="1" si="9"/>
         <v>40</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" ca="1" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>49</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16" customHeight="1"/>
@@ -2184,601 +4274,5064 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEC3C8C-1AF8-D243-9FBF-57BF9FA3B3B5}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="7"/>
+    <col min="12" max="12" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" ht="24" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14">
+        <v>24</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="14">
+        <v>12</v>
+      </c>
+      <c r="G3" s="14">
+        <v>22</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="14">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14">
+        <v>18</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14">
+        <v>19</v>
+      </c>
+      <c r="G4" s="14">
+        <v>26</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14">
+        <v>23</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="14">
+        <v>17</v>
+      </c>
+      <c r="G5" s="14">
+        <v>19</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="14">
+        <v>14</v>
+      </c>
+      <c r="G6" s="14">
+        <v>21</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="14">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14">
+        <v>25</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="14">
+        <v>19</v>
+      </c>
+      <c r="G7" s="14">
+        <v>17</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="14">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14">
+        <v>22</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="14">
+        <v>11</v>
+      </c>
+      <c r="G8" s="14">
+        <v>20</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14">
+        <v>32</v>
+      </c>
+      <c r="C13" s="14">
+        <v>32</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="14">
+        <v>39</v>
+      </c>
+      <c r="G13" s="14">
+        <v>49</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14">
+        <v>29</v>
+      </c>
+      <c r="C14" s="14">
+        <v>39</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="14">
+        <v>38</v>
+      </c>
+      <c r="G14" s="14">
+        <v>38</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="14">
+        <v>25</v>
+      </c>
+      <c r="C15" s="14">
+        <v>27</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="14">
+        <v>27</v>
+      </c>
+      <c r="G15" s="14">
+        <v>39</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="14">
+        <v>27</v>
+      </c>
+      <c r="C16" s="14">
+        <v>38</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="14">
+        <v>31</v>
+      </c>
+      <c r="G16" s="14">
+        <v>49</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14">
+        <v>32</v>
+      </c>
+      <c r="C17" s="14">
+        <v>30</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="14">
+        <v>38</v>
+      </c>
+      <c r="G17" s="14">
+        <v>44</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="14">
+        <v>26</v>
+      </c>
+      <c r="C18" s="14">
+        <v>37</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="14">
+        <v>34</v>
+      </c>
+      <c r="G18" s="14">
+        <v>48</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="14">
+        <v>17</v>
+      </c>
+      <c r="C23" s="14">
+        <v>20</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="14">
+        <v>33</v>
+      </c>
+      <c r="G23" s="14">
+        <v>58</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="14">
+        <v>24</v>
+      </c>
+      <c r="C24" s="14">
+        <v>30</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="14">
+        <v>43</v>
+      </c>
+      <c r="G24" s="14">
+        <v>43</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="14">
+        <v>25</v>
+      </c>
+      <c r="C25" s="14">
+        <v>24</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="14">
+        <v>33</v>
+      </c>
+      <c r="G25" s="14">
+        <v>40</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="14">
+        <v>17</v>
+      </c>
+      <c r="C26" s="14">
+        <v>20</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="14">
+        <v>50</v>
+      </c>
+      <c r="G26" s="14">
+        <v>43</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="14">
+        <v>17</v>
+      </c>
+      <c r="C27" s="14">
+        <v>26</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="14">
+        <v>43</v>
+      </c>
+      <c r="G27" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="14">
+        <v>22</v>
+      </c>
+      <c r="C28" s="14">
+        <v>26</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="14">
+        <v>43</v>
+      </c>
+      <c r="G28" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="3:6" ht="34">
+      <c r="C33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="14">
+        <v>10</v>
+      </c>
+      <c r="E34" s="14">
+        <v>18</v>
+      </c>
+      <c r="F34" s="15">
+        <f>(D34/100)/(E34/100)^2</f>
+        <v>3.0864197530864201</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="14">
+        <v>14</v>
+      </c>
+      <c r="E35" s="14">
+        <v>21</v>
+      </c>
+      <c r="F35" s="15">
+        <f>(D35/100)/(E35/100)^2</f>
+        <v>3.1746031746031753</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="14">
+        <v>22</v>
+      </c>
+      <c r="E36" s="14">
+        <v>26</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" ref="F36:F39" si="0">(D36/100)/(E36/100)^2</f>
+        <v>3.254437869822485</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="14">
+        <v>25</v>
+      </c>
+      <c r="E37" s="14">
+        <v>27</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="0"/>
+        <v>3.4293552812071328</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="14">
+        <v>38</v>
+      </c>
+      <c r="E38" s="14">
+        <v>34</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="0"/>
+        <v>3.2871972318339093</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="14">
+        <v>43</v>
+      </c>
+      <c r="E39" s="14">
+        <v>43</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3255813953488373</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="17">
+        <f>AVERAGE(F34:F39)</f>
+        <v>3.09293245098366</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5BED85-A3BA-B043-B87E-34A414AF1DC6}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
+    <row r="1" spans="1:16">
+      <c r="A1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="B2" s="33">
+        <v>0.79198797809037902</v>
+      </c>
+      <c r="C2" s="33">
+        <v>0.56721219045353299</v>
+      </c>
+      <c r="D2" s="36">
+        <v>1.2335559599502199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.66336047714580304</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.513062426527778</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1.1130428727952899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="B4" s="33">
+        <v>0.55235074341693002</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.45638075482968199</v>
+      </c>
+      <c r="D4" s="36">
+        <v>1.0080415060197201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.58932546242830297</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.51024338685380699</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0.97409486381193999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.63591468209773305</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0.61494647104086297</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0.88400325507617905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0.54844794268527597</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.57214464820704503</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.79725982601555001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="21">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4">
-        <v>19</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="21">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4">
-        <v>21</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4">
-        <v>17</v>
-      </c>
-      <c r="I6" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="21">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4">
-        <v>17</v>
-      </c>
-      <c r="I7" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="21">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="4">
-        <v>22</v>
-      </c>
-      <c r="I8" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="21">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="21">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="21">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="21">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="B8" s="33">
+        <v>0.351113749786853</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.38781753487260201</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0.66735958669809303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="33">
+        <v>0.41166535977108898</v>
+      </c>
+      <c r="C9" s="34">
+        <v>0.48213489093613299</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.66239835733729102</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4">
-        <v>39</v>
-      </c>
-      <c r="F13" s="4">
-        <v>49</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="B10" s="33">
+        <v>0.51983477755888496</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0.66701680291224097</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.64096552844281995</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="4">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="21">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4">
-        <v>39</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B11" s="33">
+        <v>0.37230920623027902</v>
+      </c>
+      <c r="C11" s="34">
+        <v>0.47399896768192501</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.59073800856498504</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="33">
+        <v>0.53053179701491204</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0.74234401172191999</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.59033519513197397</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="33">
+        <v>0.432571051068526</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0.60716848364093201</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0.56042278253321698</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0.28828612203978199</v>
+      </c>
+      <c r="C14" s="34">
+        <v>0.365511623162042</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0.53619668875179904</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="33">
+        <v>0.37038389693748502</v>
+      </c>
+      <c r="C15" s="34">
+        <v>0.54026395574852504</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0.51471858149819605</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="4">
-        <v>42</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4">
-        <v>43</v>
-      </c>
-      <c r="I14" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21">
-      <c r="A15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4">
-        <v>32</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4">
-        <v>27</v>
-      </c>
-      <c r="F15" s="4">
-        <v>39</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="4">
-        <v>33</v>
-      </c>
-      <c r="I15" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="21">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4">
-        <v>27</v>
-      </c>
-      <c r="C16" s="4">
-        <v>38</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4">
-        <v>31</v>
-      </c>
-      <c r="F16" s="4">
-        <v>49</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="4">
-        <v>50</v>
-      </c>
-      <c r="I16" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="21">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4">
-        <v>30</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="4">
-        <v>38</v>
-      </c>
-      <c r="F17" s="4">
-        <v>44</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="4">
-        <v>43</v>
-      </c>
-      <c r="I17" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="21">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4">
-        <v>34</v>
-      </c>
-      <c r="F18" s="4">
-        <v>48</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="4">
-        <v>43</v>
-      </c>
-      <c r="I18" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="21">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4">
-        <v>7</v>
-      </c>
-      <c r="C25" s="4">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <f>(B25/100)/(C25/100)^2</f>
-        <v>6.9999999999999991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="21">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="4">
-        <v>14</v>
-      </c>
-      <c r="C26" s="4">
-        <v>21</v>
-      </c>
-      <c r="D26">
-        <f>(B26/100)/(C26/100)^2</f>
-        <v>3.1746031746031753</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="21">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="4">
-        <v>24</v>
-      </c>
-      <c r="C27" s="4">
-        <v>30</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ref="D26:D30" si="0">(B27/100)/(C27/100)^2</f>
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="21">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="4">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4">
-        <v>37</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1.8991964937910886</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="21">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="4">
-        <v>38</v>
-      </c>
-      <c r="C29" s="4">
-        <v>44</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>1.9628099173553719</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="21">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="4">
-        <v>43</v>
-      </c>
-      <c r="C30" s="4">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1.72</v>
-      </c>
+      <c r="B16" s="33">
+        <v>0.25030065364336801</v>
+      </c>
+      <c r="C16" s="34">
+        <v>0.307165036113414</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0.51438358884384705</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
+  <mergeCells count="2">
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="L11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CA8DB5-A4A2-514A-AD6F-D5179CD32C3D}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="A1:P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="93">
+      <c r="A1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0.118781984703271</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0.11157429695218</v>
+      </c>
+      <c r="E2" s="32">
+        <v>0.142466991791486</v>
+      </c>
+      <c r="F2" s="32">
+        <v>8.1856456985398104E-2</v>
+      </c>
+      <c r="G2" s="32">
+        <v>0.115717943854472</v>
+      </c>
+      <c r="H2" s="32">
+        <v>6.4275408893590902E-2</v>
+      </c>
+      <c r="I2" s="32">
+        <v>6.9632372669157103E-2</v>
+      </c>
+      <c r="J2" s="32">
+        <v>0.14071587937376201</v>
+      </c>
+      <c r="K2" s="32">
+        <v>0.159915365870619</v>
+      </c>
+      <c r="L2" s="32">
+        <v>2.6880324113715898E-2</v>
+      </c>
+      <c r="M2" s="32">
+        <v>9.0504615706666097E-2</v>
+      </c>
+      <c r="N2" s="32">
+        <v>8.9427457585703196E-2</v>
+      </c>
+      <c r="O2" s="32">
+        <v>0.13121099411266601</v>
+      </c>
+      <c r="P2" s="32">
+        <v>3.8575546752166803E-2</v>
+      </c>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.118781984703271</v>
+      </c>
+      <c r="C3" s="32">
+        <v>1</v>
+      </c>
+      <c r="D3" s="32">
+        <v>9.3667788278735301E-2</v>
+      </c>
+      <c r="E3" s="32">
+        <v>6.0453948944218801E-2</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0.14340887737535701</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0.32587108454640901</v>
+      </c>
+      <c r="H3" s="32">
+        <v>2.88227399977521E-2</v>
+      </c>
+      <c r="I3" s="32">
+        <v>7.2243075883846999E-2</v>
+      </c>
+      <c r="J3" s="32">
+        <v>0.10146836536574701</v>
+      </c>
+      <c r="K3" s="32">
+        <v>0.13432683563567199</v>
+      </c>
+      <c r="L3" s="32">
+        <v>-1.8611966655453199E-2</v>
+      </c>
+      <c r="M3" s="32">
+        <v>9.2315684992546304E-2</v>
+      </c>
+      <c r="N3" s="32">
+        <v>1.44413644087067E-2</v>
+      </c>
+      <c r="O3" s="32">
+        <v>7.5424456163823705E-2</v>
+      </c>
+      <c r="P3" s="32">
+        <v>-3.2612673762528202E-2</v>
+      </c>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.11157429695218</v>
+      </c>
+      <c r="C4" s="32">
+        <v>9.3667788278735301E-2</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0.165765399773074</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0.14795080088674101</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0.20480373804817401</v>
+      </c>
+      <c r="H4" s="32">
+        <v>5.0273479762861003E-3</v>
+      </c>
+      <c r="I4" s="32">
+        <v>7.6910185857030203E-2</v>
+      </c>
+      <c r="J4" s="32">
+        <v>3.2802112027033897E-2</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0.34314019792310302</v>
+      </c>
+      <c r="L4" s="32">
+        <v>3.3785947973171901E-2</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0.236563318931126</v>
+      </c>
+      <c r="N4" s="32">
+        <v>9.1550803406604001E-2</v>
+      </c>
+      <c r="O4" s="32">
+        <v>0.269230586174389</v>
+      </c>
+      <c r="P4" s="32">
+        <v>0.141816964092667</v>
+      </c>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.142466991791486</v>
+      </c>
+      <c r="C5" s="32">
+        <v>6.0453948944218801E-2</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.165765399773074</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0.172297072408334</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0.177987699715767</v>
+      </c>
+      <c r="H5" s="32">
+        <v>7.0786203972600895E-2</v>
+      </c>
+      <c r="I5" s="32">
+        <v>3.9377720291103403E-2</v>
+      </c>
+      <c r="J5" s="32">
+        <v>7.2637569625983806E-2</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0.127344440268568</v>
+      </c>
+      <c r="L5" s="32">
+        <v>-3.85553900091386E-3</v>
+      </c>
+      <c r="M5" s="32">
+        <v>7.6398122318831294E-2</v>
+      </c>
+      <c r="N5" s="32">
+        <v>1.54456716629939E-2</v>
+      </c>
+      <c r="O5" s="32">
+        <v>8.3914562622689204E-2</v>
+      </c>
+      <c r="P5" s="32">
+        <v>5.9270608023987002E-2</v>
+      </c>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="32">
+        <v>8.1856456985398104E-2</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.14340887737535701</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.14795080088674101</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0.172297072408334</v>
+      </c>
+      <c r="F6" s="32">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.19550280338196699</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0.119098978327332</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0.177781460473869</v>
+      </c>
+      <c r="J6" s="32">
+        <v>3.8796010249167498E-2</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0.17941020275489</v>
+      </c>
+      <c r="L6" s="32">
+        <v>-1.07988603895632E-2</v>
+      </c>
+      <c r="M6" s="32">
+        <v>8.8479563109410603E-2</v>
+      </c>
+      <c r="N6" s="32">
+        <v>4.59138079464909E-2</v>
+      </c>
+      <c r="O6" s="32">
+        <v>8.6787012092390994E-2</v>
+      </c>
+      <c r="P6" s="32">
+        <v>-7.0531445549731203E-3</v>
+      </c>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0.115717943854472</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.32587108454640901</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.20480373804817401</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0.177987699715767</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.19550280338196699</v>
+      </c>
+      <c r="G7" s="32">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32">
+        <v>2.4479576957864999E-2</v>
+      </c>
+      <c r="I7" s="32">
+        <v>5.2619861397229101E-2</v>
+      </c>
+      <c r="J7" s="32">
+        <v>0.10423617036799</v>
+      </c>
+      <c r="K7" s="32">
+        <v>0.16315487316681099</v>
+      </c>
+      <c r="L7" s="32">
+        <v>4.43624960010085E-2</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0.37456577386564399</v>
+      </c>
+      <c r="N7" s="32">
+        <v>1.1615205944520399E-2</v>
+      </c>
+      <c r="O7" s="32">
+        <v>0.119175601479049</v>
+      </c>
+      <c r="P7" s="32">
+        <v>4.1036268148724103E-2</v>
+      </c>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="32">
+        <v>6.4275408893590902E-2</v>
+      </c>
+      <c r="C8" s="32">
+        <v>2.88227399977521E-2</v>
+      </c>
+      <c r="D8" s="32">
+        <v>5.0273479762861003E-3</v>
+      </c>
+      <c r="E8" s="32">
+        <v>7.0786203972600895E-2</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0.119098978327332</v>
+      </c>
+      <c r="G8" s="32">
+        <v>2.4479576957864999E-2</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+      <c r="I8" s="32">
+        <v>9.4537736296282204E-2</v>
+      </c>
+      <c r="J8" s="32">
+        <v>3.8251257647133399E-2</v>
+      </c>
+      <c r="K8" s="32">
+        <v>7.2809267388243795E-2</v>
+      </c>
+      <c r="L8" s="32">
+        <v>2.5542277113412101E-2</v>
+      </c>
+      <c r="M8" s="32">
+        <v>2.08740633325399E-2</v>
+      </c>
+      <c r="N8" s="32">
+        <v>3.7866507558826201E-2</v>
+      </c>
+      <c r="O8" s="32">
+        <v>1.43152908048646E-2</v>
+      </c>
+      <c r="P8" s="32">
+        <v>-2.2346081646957599E-2</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="32">
+        <v>6.9632372669157103E-2</v>
+      </c>
+      <c r="C9" s="32">
+        <v>7.2243075883846999E-2</v>
+      </c>
+      <c r="D9" s="32">
+        <v>7.6910185857030203E-2</v>
+      </c>
+      <c r="E9" s="32">
+        <v>3.9377720291103403E-2</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.177781460473869</v>
+      </c>
+      <c r="G9" s="32">
+        <v>5.2619861397229101E-2</v>
+      </c>
+      <c r="H9" s="32">
+        <v>9.4537736296282204E-2</v>
+      </c>
+      <c r="I9" s="32">
+        <v>1</v>
+      </c>
+      <c r="J9" s="32">
+        <v>8.4985796336474202E-3</v>
+      </c>
+      <c r="K9" s="32">
+        <v>9.7414030349841405E-2</v>
+      </c>
+      <c r="L9" s="32">
+        <v>-1.1235500971950399E-2</v>
+      </c>
+      <c r="M9" s="32">
+        <v>2.7247676456637601E-2</v>
+      </c>
+      <c r="N9" s="32">
+        <v>2.94671320969228E-2</v>
+      </c>
+      <c r="O9" s="32">
+        <v>1.88387360169452E-2</v>
+      </c>
+      <c r="P9" s="32">
+        <v>-3.0555226739058701E-3</v>
+      </c>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0.14071587937376201</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.10146836536574701</v>
+      </c>
+      <c r="D10" s="32">
+        <v>3.2802112027033897E-2</v>
+      </c>
+      <c r="E10" s="32">
+        <v>7.2637569625983806E-2</v>
+      </c>
+      <c r="F10" s="32">
+        <v>3.8796010249167498E-2</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0.10423617036799</v>
+      </c>
+      <c r="H10" s="32">
+        <v>3.8251257647133399E-2</v>
+      </c>
+      <c r="I10" s="32">
+        <v>8.4985796336474202E-3</v>
+      </c>
+      <c r="J10" s="32">
+        <v>1</v>
+      </c>
+      <c r="K10" s="32">
+        <v>6.8621787077765201E-2</v>
+      </c>
+      <c r="L10" s="32">
+        <v>3.1692791515307697E-2</v>
+      </c>
+      <c r="M10" s="32">
+        <v>2.9134126836144102E-2</v>
+      </c>
+      <c r="N10" s="32">
+        <v>4.8535783123714302E-2</v>
+      </c>
+      <c r="O10" s="32">
+        <v>6.47670025449118E-2</v>
+      </c>
+      <c r="P10" s="32">
+        <v>1.6756540208197699E-2</v>
+      </c>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0.159915365870619</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.13432683563567199</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.34314019792310302</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0.127344440268568</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0.17941020275489</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0.16315487316681099</v>
+      </c>
+      <c r="H11" s="32">
+        <v>7.2809267388243795E-2</v>
+      </c>
+      <c r="I11" s="32">
+        <v>9.7414030349841405E-2</v>
+      </c>
+      <c r="J11" s="32">
+        <v>6.8621787077765201E-2</v>
+      </c>
+      <c r="K11" s="32">
+        <v>1</v>
+      </c>
+      <c r="L11" s="32">
+        <v>1.8040729322446099E-2</v>
+      </c>
+      <c r="M11" s="32">
+        <v>0.12750810572488</v>
+      </c>
+      <c r="N11" s="32">
+        <v>4.6808775471803399E-2</v>
+      </c>
+      <c r="O11" s="32">
+        <v>0.36251917310036003</v>
+      </c>
+      <c r="P11" s="32">
+        <v>0.112883539713911</v>
+      </c>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="32">
+        <v>2.6880324113715898E-2</v>
+      </c>
+      <c r="C12" s="32">
+        <v>-1.8611966655453199E-2</v>
+      </c>
+      <c r="D12" s="32">
+        <v>3.3785947973171901E-2</v>
+      </c>
+      <c r="E12" s="32">
+        <v>-3.85553900091386E-3</v>
+      </c>
+      <c r="F12" s="32">
+        <v>-1.07988603895632E-2</v>
+      </c>
+      <c r="G12" s="32">
+        <v>4.43624960010085E-2</v>
+      </c>
+      <c r="H12" s="32">
+        <v>2.5542277113412101E-2</v>
+      </c>
+      <c r="I12" s="32">
+        <v>-1.1235500971950399E-2</v>
+      </c>
+      <c r="J12" s="32">
+        <v>3.1692791515307697E-2</v>
+      </c>
+      <c r="K12" s="32">
+        <v>1.8040729322446099E-2</v>
+      </c>
+      <c r="L12" s="32">
+        <v>1</v>
+      </c>
+      <c r="M12" s="32">
+        <v>4.6169592752229503E-2</v>
+      </c>
+      <c r="N12" s="32">
+        <v>2.0580922807251201E-2</v>
+      </c>
+      <c r="O12" s="32">
+        <v>2.8565441369451199E-2</v>
+      </c>
+      <c r="P12" s="32">
+        <v>4.9593479457027004E-3</v>
+      </c>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="32">
+        <v>9.0504615706666097E-2</v>
+      </c>
+      <c r="C13" s="32">
+        <v>9.2315684992546304E-2</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0.236563318931126</v>
+      </c>
+      <c r="E13" s="32">
+        <v>7.6398122318831294E-2</v>
+      </c>
+      <c r="F13" s="32">
+        <v>8.8479563109410603E-2</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0.37456577386564399</v>
+      </c>
+      <c r="H13" s="32">
+        <v>2.08740633325399E-2</v>
+      </c>
+      <c r="I13" s="32">
+        <v>2.7247676456637601E-2</v>
+      </c>
+      <c r="J13" s="32">
+        <v>2.9134126836144102E-2</v>
+      </c>
+      <c r="K13" s="32">
+        <v>0.12750810572488</v>
+      </c>
+      <c r="L13" s="32">
+        <v>4.6169592752229503E-2</v>
+      </c>
+      <c r="M13" s="32">
+        <v>1</v>
+      </c>
+      <c r="N13" s="32">
+        <v>1.0232596645273401E-2</v>
+      </c>
+      <c r="O13" s="32">
+        <v>0.16344330501627499</v>
+      </c>
+      <c r="P13" s="32">
+        <v>4.6156940717270098E-2</v>
+      </c>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="32">
+        <v>8.9427457585703196E-2</v>
+      </c>
+      <c r="C14" s="32">
+        <v>1.44413644087067E-2</v>
+      </c>
+      <c r="D14" s="32">
+        <v>9.1550803406604001E-2</v>
+      </c>
+      <c r="E14" s="32">
+        <v>1.54456716629939E-2</v>
+      </c>
+      <c r="F14" s="32">
+        <v>4.59138079464909E-2</v>
+      </c>
+      <c r="G14" s="32">
+        <v>1.1615205944520399E-2</v>
+      </c>
+      <c r="H14" s="32">
+        <v>3.7866507558826201E-2</v>
+      </c>
+      <c r="I14" s="32">
+        <v>2.94671320969228E-2</v>
+      </c>
+      <c r="J14" s="32">
+        <v>4.8535783123714302E-2</v>
+      </c>
+      <c r="K14" s="32">
+        <v>4.6808775471803399E-2</v>
+      </c>
+      <c r="L14" s="32">
+        <v>2.0580922807251201E-2</v>
+      </c>
+      <c r="M14" s="32">
+        <v>1.0232596645273401E-2</v>
+      </c>
+      <c r="N14" s="32">
+        <v>1</v>
+      </c>
+      <c r="O14" s="32">
+        <v>9.0450188605313096E-3</v>
+      </c>
+      <c r="P14" s="32">
+        <v>1.4197278516725099E-2</v>
+      </c>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="32">
+        <v>0.13121099411266601</v>
+      </c>
+      <c r="C15" s="32">
+        <v>7.5424456163823705E-2</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.269230586174389</v>
+      </c>
+      <c r="E15" s="32">
+        <v>8.3914562622689204E-2</v>
+      </c>
+      <c r="F15" s="32">
+        <v>8.6787012092390994E-2</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0.119175601479049</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1.43152908048646E-2</v>
+      </c>
+      <c r="I15" s="32">
+        <v>1.88387360169452E-2</v>
+      </c>
+      <c r="J15" s="32">
+        <v>6.47670025449118E-2</v>
+      </c>
+      <c r="K15" s="32">
+        <v>0.36251917310036003</v>
+      </c>
+      <c r="L15" s="32">
+        <v>2.8565441369451199E-2</v>
+      </c>
+      <c r="M15" s="32">
+        <v>0.16344330501627499</v>
+      </c>
+      <c r="N15" s="32">
+        <v>9.0450188605313096E-3</v>
+      </c>
+      <c r="O15" s="32">
+        <v>1</v>
+      </c>
+      <c r="P15" s="32">
+        <v>1.48465333402432E-2</v>
+      </c>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="32">
+        <v>3.8575546752166803E-2</v>
+      </c>
+      <c r="C16" s="32">
+        <v>-3.2612673762528202E-2</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0.141816964092667</v>
+      </c>
+      <c r="E16" s="32">
+        <v>5.9270608023987002E-2</v>
+      </c>
+      <c r="F16" s="32">
+        <v>-7.0531445549731203E-3</v>
+      </c>
+      <c r="G16" s="32">
+        <v>4.1036268148724103E-2</v>
+      </c>
+      <c r="H16" s="32">
+        <v>-2.2346081646957599E-2</v>
+      </c>
+      <c r="I16" s="32">
+        <v>-3.0555226739058701E-3</v>
+      </c>
+      <c r="J16" s="32">
+        <v>1.6756540208197699E-2</v>
+      </c>
+      <c r="K16" s="32">
+        <v>0.112883539713911</v>
+      </c>
+      <c r="L16" s="32">
+        <v>4.9593479457027004E-3</v>
+      </c>
+      <c r="M16" s="32">
+        <v>4.6156940717270098E-2</v>
+      </c>
+      <c r="N16" s="32">
+        <v>1.4197278516725099E-2</v>
+      </c>
+      <c r="O16" s="32">
+        <v>1.48465333402432E-2</v>
+      </c>
+      <c r="P16" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="33" spans="9:13">
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K23:M23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF86A60-045C-5A41-8679-B155E2A6C230}">
+  <dimension ref="A5:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="45">
+        <v>0.28828612203978199</v>
+      </c>
+      <c r="C11" s="45">
+        <v>0.365511623162042</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.53619668875179904</v>
+      </c>
+      <c r="E11" s="51">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="45">
+        <v>0.432571051068526</v>
+      </c>
+      <c r="C12" s="45">
+        <v>0.60716848364093201</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.56042278253321698</v>
+      </c>
+      <c r="E12" s="51"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="48">
+        <v>1</v>
+      </c>
+      <c r="C16" s="48">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="48">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="48">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FECACF-CC15-E44D-8E56-078B84F748B3}">
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="I13:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="37" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="53">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53">
+        <v>1</v>
+      </c>
+      <c r="C2" s="53">
+        <v>0.432571051068526</v>
+      </c>
+      <c r="D2" s="53">
+        <v>0.60716848364093201</v>
+      </c>
+      <c r="E2" s="52">
+        <v>0.56042278253321698</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="I2" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="4">
+        <f>J7/J8</f>
+        <v>0.7642442241454418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="53">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="C3" s="53">
+        <v>0.42535680461708802</v>
+      </c>
+      <c r="D3" s="53">
+        <v>0.57710026519855695</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0.57712121220824097</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="I3" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="45">
+        <v>0.39999999999999902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="53">
+        <v>0.41814255816565099</v>
+      </c>
+      <c r="D4" s="53">
+        <v>0.54767420440674597</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0.59495692063607697</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="I4" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="45">
+        <v>0.34600009365127998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="53">
+        <v>0.15</v>
+      </c>
+      <c r="B5" s="53">
+        <v>0.85</v>
+      </c>
+      <c r="C5" s="53">
+        <v>0.41092831171421401</v>
+      </c>
+      <c r="D5" s="53">
+        <v>0.518999539275116</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0.61392792787300099</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="I5" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="45">
+        <v>0.32723773971740899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="B6" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="53">
+        <v>0.40371406526277698</v>
+      </c>
+      <c r="D6" s="53">
+        <v>0.49120787745913103</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0.63397612203132303</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="I6" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0.77527761275446505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="B7" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="53">
+        <v>0.39649981881134</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0.46445775427150399</v>
+      </c>
+      <c r="E7" s="52">
+        <v>0.65495691699339398</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="I7" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="29">
+        <v>2.3691570948508698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="B8" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="53">
+        <v>0.38928557235990302</v>
+      </c>
+      <c r="D8" s="53">
+        <v>0.43893963325593499</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0.67659775937056299</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="I8" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="61">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="53">
+        <v>0.35</v>
+      </c>
+      <c r="B9" s="53">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="C9" s="53">
+        <v>0.38207132590846499</v>
+      </c>
+      <c r="D9" s="53">
+        <v>0.41488090736702199</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.69844459159968197</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="B10" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="C10" s="53">
+        <v>0.37485707945702801</v>
+      </c>
+      <c r="D10" s="53">
+        <v>0.39254999995849499</v>
+      </c>
+      <c r="E10" s="52">
+        <v>0.71979895423997897</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="53">
+        <v>0.45</v>
+      </c>
+      <c r="B11" s="53">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C11" s="53">
+        <v>0.36764283300559097</v>
+      </c>
+      <c r="D11" s="53">
+        <v>0.37225798467198401</v>
+      </c>
+      <c r="E11" s="52">
+        <v>0.73965594921546096</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="53">
+        <v>0.360428586554154</v>
+      </c>
+      <c r="D12" s="53">
+        <v>0.35435530382877301</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0.75666593291267703</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="53">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B13" s="53">
+        <v>0.44999999999999901</v>
+      </c>
+      <c r="C13" s="53">
+        <v>0.35321434010271702</v>
+      </c>
+      <c r="D13" s="53">
+        <v>0.33922046675579498</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.76915860236272005</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="I13" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="58">
+        <v>0.6</v>
+      </c>
+      <c r="B14" s="58">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="C14" s="58">
+        <v>0.34600009365127998</v>
+      </c>
+      <c r="D14" s="58">
+        <v>0.32723773971740899</v>
+      </c>
+      <c r="E14" s="59">
+        <v>0.77527761275446505</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="I14" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="37">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="53">
+        <v>0.65</v>
+      </c>
+      <c r="B15" s="53">
+        <v>0.35</v>
+      </c>
+      <c r="C15" s="53">
+        <v>0.33878584719984201</v>
+      </c>
+      <c r="D15" s="53">
+        <v>0.31876279745227498</v>
+      </c>
+      <c r="E15" s="52">
+        <v>0.77325788696137299</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="I15" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="33">
+        <v>0.34600009365127998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="B16" s="53">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="C16" s="53">
+        <v>0.33157160074840503</v>
+      </c>
+      <c r="D16" s="53">
+        <v>0.31407972443114501</v>
+      </c>
+      <c r="E16" s="52">
+        <v>0.76181804216037696</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="I16" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="33">
+        <v>0.32723773971740899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="B17" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="53">
+        <v>0.32435735429696799</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0.313358572681185</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.74054892550543405</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="I17" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="63">
+        <f>J15-J13</f>
+        <v>0.25600009365127996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="B18" s="53">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="C18" s="53">
+        <v>0.31714310784553101</v>
+      </c>
+      <c r="D18" s="53">
+        <v>0.31662641450412399</v>
+      </c>
+      <c r="E18" s="52">
+        <v>0.71012113186343895</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="I18" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="63">
+        <f>J17/J14/J16^2</f>
+        <v>0.77117272657615654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="53">
+        <v>0.85</v>
+      </c>
+      <c r="B19" s="53">
+        <v>0.149999999999999</v>
+      </c>
+      <c r="C19" s="53">
+        <v>0.30992886139409398</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0.32376248572925698</v>
+      </c>
+      <c r="E19" s="52">
+        <v>0.67218677575907704</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="I19" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="64">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="B20" s="53">
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="C20" s="53">
+        <v>0.302714614942657</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0.334519323035815</v>
+      </c>
+      <c r="E20" s="52">
+        <v>0.62900586140469095</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="B21" s="53">
+        <v>4.9999999999999899E-2</v>
+      </c>
+      <c r="C21" s="53">
+        <v>0.29550036849121902</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0.34856187014358597</v>
+      </c>
+      <c r="E21" s="52">
+        <v>0.58296786280012003</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="53">
+        <v>1</v>
+      </c>
+      <c r="B22" s="53">
+        <v>0</v>
+      </c>
+      <c r="C22" s="53">
+        <v>0.28828612203978199</v>
+      </c>
+      <c r="D22" s="53">
+        <v>0.365511623162042</v>
+      </c>
+      <c r="E22" s="52">
+        <v>0.53619668875179904</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="D27" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="D28" s="53">
+        <v>0.60716848364093201</v>
+      </c>
+      <c r="E28" s="53">
+        <v>0.432571051068526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="D29" s="53">
+        <v>0.57710026519855695</v>
+      </c>
+      <c r="E29" s="53">
+        <v>0.42535680461708802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="D30" s="53">
+        <v>0.54767420440674597</v>
+      </c>
+      <c r="E30" s="53">
+        <v>0.41814255816565099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="D31" s="53">
+        <v>0.518999539275116</v>
+      </c>
+      <c r="E31" s="53">
+        <v>0.41092831171421401</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="D32" s="53">
+        <v>0.49120787745913103</v>
+      </c>
+      <c r="E32" s="53">
+        <v>0.40371406526277698</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="53">
+        <v>0.46445775427150399</v>
+      </c>
+      <c r="E33" s="53">
+        <v>0.39649981881134</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="53">
+        <v>0.43893963325593499</v>
+      </c>
+      <c r="E34" s="53">
+        <v>0.38928557235990302</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="53">
+        <v>0.41488090736702199</v>
+      </c>
+      <c r="E35" s="53">
+        <v>0.38207132590846499</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="53">
+        <v>0.39254999995849499</v>
+      </c>
+      <c r="E36" s="53">
+        <v>0.37485707945702801</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="53">
+        <v>0.37225798467198401</v>
+      </c>
+      <c r="E37" s="53">
+        <v>0.36764283300559097</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="53">
+        <v>0.35435530382877301</v>
+      </c>
+      <c r="E38" s="53">
+        <v>0.360428586554154</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="53">
+        <v>0.33922046675579498</v>
+      </c>
+      <c r="E39" s="53">
+        <v>0.35321434010271702</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="58">
+        <v>0.32723773971740899</v>
+      </c>
+      <c r="E40" s="58">
+        <v>0.34600009365127998</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="53">
+        <v>0.31876279745227498</v>
+      </c>
+      <c r="E41" s="53">
+        <v>0.33878584719984201</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="53">
+        <v>0.31407972443114501</v>
+      </c>
+      <c r="E42" s="53">
+        <v>0.33157160074840503</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="53">
+        <v>0.313358572681185</v>
+      </c>
+      <c r="E43" s="53">
+        <v>0.32435735429696799</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" s="53">
+        <v>0.31662641450412399</v>
+      </c>
+      <c r="E44" s="53">
+        <v>0.31714310784553101</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="53">
+        <v>0.32376248572925698</v>
+      </c>
+      <c r="E45" s="53">
+        <v>0.30992886139409398</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="53">
+        <v>0.334519323035815</v>
+      </c>
+      <c r="E46" s="53">
+        <v>0.302714614942657</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" s="53">
+        <v>0.34856187014358597</v>
+      </c>
+      <c r="E47" s="53">
+        <v>0.29550036849121902</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" s="53">
+        <v>0.365511623162042</v>
+      </c>
+      <c r="E48" s="53">
+        <v>0.28828612203978199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9052D605-2D86-7845-83DA-D0A17915CC4C}">
+  <dimension ref="A1:P162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="71" customWidth="1"/>
+    <col min="11" max="11" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="4"/>
+      <c r="E1" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="69"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4"/>
+      <c r="E2" s="33">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33">
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="H2" s="33">
+        <v>0</v>
+      </c>
+      <c r="I2" s="70"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4"/>
+      <c r="E3" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="33">
+        <v>0.95</v>
+      </c>
+      <c r="G3" s="33">
+        <v>0.105184999999999</v>
+      </c>
+      <c r="H3" s="33">
+        <v>1.6526479740558399E-2</v>
+      </c>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4"/>
+      <c r="E4" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="33">
+        <v>0.118069999999999</v>
+      </c>
+      <c r="H4" s="33">
+        <v>3.3025096656413101E-2</v>
+      </c>
+      <c r="I4" s="70"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4"/>
+      <c r="E5" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="F5" s="33">
+        <v>0.85</v>
+      </c>
+      <c r="G5" s="33">
+        <v>0.13095499999999999</v>
+      </c>
+      <c r="H5" s="33">
+        <v>4.9523705734234202E-2</v>
+      </c>
+      <c r="I5" s="70"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4"/>
+      <c r="E6" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0.14384</v>
+      </c>
+      <c r="H6" s="33">
+        <v>6.6022312850065101E-2</v>
+      </c>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4"/>
+      <c r="E7" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0.156725</v>
+      </c>
+      <c r="H7" s="33">
+        <v>8.2520919180702104E-2</v>
+      </c>
+      <c r="I7" s="70"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4"/>
+      <c r="E8" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="33">
+        <v>0.16960999999999901</v>
+      </c>
+      <c r="H8" s="33">
+        <v>9.9019525118631699E-2</v>
+      </c>
+      <c r="I8" s="70"/>
+      <c r="O8" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="35">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4"/>
+      <c r="E9" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0.18249499999999999</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0.115518130832116</v>
+      </c>
+      <c r="I9" s="70"/>
+      <c r="K9" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="33">
+        <v>0.23</v>
+      </c>
+      <c r="O9" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="72">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4"/>
+      <c r="E10" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0.195379999999999</v>
+      </c>
+      <c r="H10" s="33">
+        <v>0.13201673640530501</v>
+      </c>
+      <c r="I10" s="70"/>
+      <c r="K10" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="33">
+        <v>0.77</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="35">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="4"/>
+      <c r="E11" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0.20826500000000001</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0.14851534188495399</v>
+      </c>
+      <c r="I11" s="70"/>
+      <c r="K11" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O11" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="35">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4"/>
+      <c r="E12" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0.22114999999999899</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0.165013947299121</v>
+      </c>
+      <c r="I12" s="70"/>
+      <c r="K12" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="4"/>
+      <c r="E13" s="33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F13" s="33">
+        <v>0.44999999999999901</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0.23403499999999999</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0.18151255266566199</v>
+      </c>
+      <c r="I13" s="70"/>
+      <c r="K13" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="36">
+        <v>0.78</v>
+      </c>
+      <c r="O13" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="73">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4"/>
+      <c r="E14" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="33">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0.24692</v>
+      </c>
+      <c r="H14" s="68">
+        <v>0.198011157996482</v>
+      </c>
+      <c r="I14" s="70"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="4"/>
+      <c r="E15" s="33">
+        <v>0.65</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0.25980499999999901</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0.21450976329982199</v>
+      </c>
+      <c r="I15" s="70"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="4"/>
+      <c r="E16" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="33">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="G16" s="33">
+        <v>0.27268999999999999</v>
+      </c>
+      <c r="H16" s="33">
+        <v>0.23100836858157101</v>
+      </c>
+      <c r="I16" s="70"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="4"/>
+      <c r="E17" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="33">
+        <v>0.28557499999999902</v>
+      </c>
+      <c r="H17" s="33">
+        <v>0.247506973846047</v>
+      </c>
+      <c r="I17" s="70"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="4"/>
+      <c r="E18" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="33">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="G18" s="33">
+        <v>0.298459999999999</v>
+      </c>
+      <c r="H18" s="33">
+        <v>0.26400557909648698</v>
+      </c>
+      <c r="I18" s="70"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="4"/>
+      <c r="E19" s="33">
+        <v>0.85</v>
+      </c>
+      <c r="F19" s="33">
+        <v>0.149999999999999</v>
+      </c>
+      <c r="G19" s="33">
+        <v>0.31134499999999998</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0.280504184335369</v>
+      </c>
+      <c r="I19" s="70"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="4"/>
+      <c r="E20" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="F20" s="33">
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="G20" s="33">
+        <v>0.32423000000000002</v>
+      </c>
+      <c r="H20" s="33">
+        <v>0.29700278956461901</v>
+      </c>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="4"/>
+      <c r="E21" s="33">
+        <v>0.95</v>
+      </c>
+      <c r="F21" s="33">
+        <v>4.9999999999999899E-2</v>
+      </c>
+      <c r="G21" s="33">
+        <v>0.337115</v>
+      </c>
+      <c r="H21" s="33">
+        <v>0.313501394785757</v>
+      </c>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="4"/>
+      <c r="E22" s="33">
+        <v>1</v>
+      </c>
+      <c r="F22" s="33">
+        <v>0</v>
+      </c>
+      <c r="G22" s="33">
+        <v>0.35</v>
+      </c>
+      <c r="H22" s="33">
+        <v>0.33</v>
+      </c>
+      <c r="I22" s="70"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="4"/>
+      <c r="E23" s="33">
+        <v>1.05</v>
+      </c>
+      <c r="F23" s="33">
+        <v>-0.05</v>
+      </c>
+      <c r="G23" s="33">
+        <v>0.36288500000000001</v>
+      </c>
+      <c r="H23" s="33">
+        <v>0.34649860520833298</v>
+      </c>
+      <c r="I23" s="70"/>
+    </row>
+    <row r="24" spans="1:16" ht="19">
+      <c r="A24" s="4"/>
+      <c r="E24" s="33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24" s="33">
+        <v>-0.1</v>
+      </c>
+      <c r="G24" s="33">
+        <v>0.37576999999999999</v>
+      </c>
+      <c r="H24" s="33">
+        <v>0.36299721041156102</v>
+      </c>
+      <c r="I24" s="70"/>
+      <c r="K24" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="19">
+      <c r="A25" s="4"/>
+      <c r="E25" s="33">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F25" s="33">
+        <v>-0.15</v>
+      </c>
+      <c r="G25" s="33">
+        <v>0.38865499999999997</v>
+      </c>
+      <c r="H25" s="33">
+        <v>0.37949581561035201</v>
+      </c>
+      <c r="I25" s="70"/>
+      <c r="K25" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="76">
+        <v>0.23</v>
+      </c>
+      <c r="M25" s="77">
+        <v>0.09</v>
+      </c>
+      <c r="N25" s="77"/>
+      <c r="O25" s="78">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P25" s="79">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="19">
+      <c r="A26" s="4"/>
+      <c r="E26" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="F26" s="33">
+        <v>-0.2</v>
+      </c>
+      <c r="G26" s="33">
+        <v>0.40154000000000001</v>
+      </c>
+      <c r="H26" s="33">
+        <v>0.39599442080525799</v>
+      </c>
+      <c r="I26" s="70"/>
+      <c r="K26" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="77">
+        <v>0.308</v>
+      </c>
+      <c r="M26" s="76">
+        <v>0.432571051068526</v>
+      </c>
+      <c r="N26" s="80">
+        <v>0.60716848364093201</v>
+      </c>
+      <c r="O26" s="78"/>
+      <c r="P26" s="79"/>
+    </row>
+    <row r="27" spans="1:16" ht="18">
+      <c r="A27" s="4"/>
+      <c r="E27" s="33">
+        <v>1.25</v>
+      </c>
+      <c r="F27" s="33">
+        <v>-0.25</v>
+      </c>
+      <c r="G27" s="33">
+        <v>0.41442499999999999</v>
+      </c>
+      <c r="H27" s="33">
+        <v>0.41249302599674698</v>
+      </c>
+      <c r="I27" s="70"/>
+      <c r="K27" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="76">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="M27" s="76">
+        <v>0.28828612203978199</v>
+      </c>
+      <c r="N27" s="80">
+        <v>0.365511623162042</v>
+      </c>
+      <c r="O27" s="78"/>
+      <c r="P27" s="79"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="4"/>
+      <c r="E28" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="F28" s="33">
+        <v>-0.3</v>
+      </c>
+      <c r="G28" s="33">
+        <v>0.42730999999999902</v>
+      </c>
+      <c r="H28" s="33">
+        <v>0.428991631185213</v>
+      </c>
+      <c r="I28" s="70"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="4"/>
+      <c r="E29" s="33">
+        <v>1.35</v>
+      </c>
+      <c r="F29" s="33">
+        <v>-0.35</v>
+      </c>
+      <c r="G29" s="33">
+        <v>0.440194999999999</v>
+      </c>
+      <c r="H29" s="33">
+        <v>0.445490236370991</v>
+      </c>
+      <c r="I29" s="70"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="4"/>
+      <c r="E30" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="F30" s="33">
+        <v>-0.4</v>
+      </c>
+      <c r="G30" s="33">
+        <v>0.45307999999999998</v>
+      </c>
+      <c r="H30" s="33">
+        <v>0.46198884155436898</v>
+      </c>
+      <c r="I30" s="70"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="4"/>
+      <c r="E31" s="33">
+        <v>1.45</v>
+      </c>
+      <c r="F31" s="33">
+        <v>-0.45</v>
+      </c>
+      <c r="G31" s="33">
+        <v>0.46596500000000002</v>
+      </c>
+      <c r="H31" s="33">
+        <v>0.47848744673559601</v>
+      </c>
+      <c r="I31" s="70"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="4"/>
+      <c r="E32" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="33">
+        <v>-0.5</v>
+      </c>
+      <c r="G32" s="33">
+        <v>0.478849999999999</v>
+      </c>
+      <c r="H32" s="33">
+        <v>0.49498605191488698</v>
+      </c>
+      <c r="I32" s="70"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4"/>
+      <c r="E33" s="33">
+        <v>1.55</v>
+      </c>
+      <c r="F33" s="33">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="G33" s="33">
+        <v>0.49173499999999998</v>
+      </c>
+      <c r="H33" s="33">
+        <v>0.51148465709242996</v>
+      </c>
+      <c r="I33" s="70"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P25:P27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>